--- a/data/pca/factorExposure/factorExposure_2018-03-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.001992547936376009</v>
+        <v>0.01106358789139311</v>
       </c>
       <c r="C2">
-        <v>-0.02488172340734841</v>
+        <v>-0.02552559411146467</v>
       </c>
       <c r="D2">
-        <v>0.02052614406344814</v>
+        <v>-0.02592582244811007</v>
       </c>
       <c r="E2">
-        <v>-0.01114275408521821</v>
+        <v>0.01952407016887293</v>
       </c>
       <c r="F2">
-        <v>0.08165187875706112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.008503175663466917</v>
+      </c>
+      <c r="G2">
+        <v>-0.01574796323654203</v>
+      </c>
+      <c r="H2">
+        <v>-0.04504593935140836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0695641902749559</v>
+        <v>0.05202192122678071</v>
       </c>
       <c r="C3">
-        <v>-0.05291133058130743</v>
+        <v>-0.07508458571096883</v>
       </c>
       <c r="D3">
-        <v>0.002282457523868747</v>
+        <v>-0.01136171156151953</v>
       </c>
       <c r="E3">
-        <v>-0.04515007929247854</v>
+        <v>0.01255337913744637</v>
       </c>
       <c r="F3">
-        <v>0.311221732624546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08594029924519937</v>
+      </c>
+      <c r="G3">
+        <v>-0.09916127254164575</v>
+      </c>
+      <c r="H3">
+        <v>-0.1104351112334872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03957078559084659</v>
+        <v>0.03538086239690776</v>
       </c>
       <c r="C4">
-        <v>-0.01994920676655769</v>
+        <v>-0.06075047320986388</v>
       </c>
       <c r="D4">
-        <v>0.02970629133225283</v>
+        <v>-0.02141277729330826</v>
       </c>
       <c r="E4">
-        <v>0.03574654871285007</v>
+        <v>-0.01734266347508477</v>
       </c>
       <c r="F4">
-        <v>0.06310196244611878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01784045315277497</v>
+      </c>
+      <c r="G4">
+        <v>-0.04670174252046989</v>
+      </c>
+      <c r="H4">
+        <v>-0.0547204589033651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0307482438857298</v>
+        <v>0.02146205266396304</v>
       </c>
       <c r="C6">
-        <v>-0.01926784265385919</v>
+        <v>-0.06234598244528477</v>
       </c>
       <c r="D6">
-        <v>0.03799830673230453</v>
+        <v>-0.01647193824411669</v>
       </c>
       <c r="E6">
-        <v>0.02556501081396539</v>
+        <v>-0.005894105884843309</v>
       </c>
       <c r="F6">
-        <v>0.02324097376475683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02153269045817028</v>
+      </c>
+      <c r="G6">
+        <v>-0.02326195444884646</v>
+      </c>
+      <c r="H6">
+        <v>-0.05462445203811258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03885544781306992</v>
+        <v>0.007648761693862229</v>
       </c>
       <c r="C7">
-        <v>0.02590364094092682</v>
+        <v>-0.03230748984841314</v>
       </c>
       <c r="D7">
-        <v>0.02362207311370437</v>
+        <v>-0.01281074700782896</v>
       </c>
       <c r="E7">
-        <v>0.01263372670721308</v>
+        <v>-0.0434418479823162</v>
       </c>
       <c r="F7">
-        <v>0.03218659593313805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.009085284318415659</v>
+      </c>
+      <c r="G7">
+        <v>-0.01190498832980357</v>
+      </c>
+      <c r="H7">
+        <v>-0.03603555571546479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01062129724468</v>
+        <v>-0.004510780932637048</v>
       </c>
       <c r="C8">
-        <v>0.001244224714680764</v>
+        <v>-0.009597019680262631</v>
       </c>
       <c r="D8">
-        <v>0.03669709784302046</v>
+        <v>-0.002624148248195937</v>
       </c>
       <c r="E8">
-        <v>0.02626085187244114</v>
+        <v>-0.0095123275372155</v>
       </c>
       <c r="F8">
-        <v>0.05738519284888886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.008974471824985879</v>
+      </c>
+      <c r="G8">
+        <v>-0.03297811913576647</v>
+      </c>
+      <c r="H8">
+        <v>-0.02750397444627318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02682852371396254</v>
+        <v>0.0202652509829801</v>
       </c>
       <c r="C9">
-        <v>-0.01108505030854608</v>
+        <v>-0.0464265790470884</v>
       </c>
       <c r="D9">
-        <v>0.03025082551820389</v>
+        <v>-0.01503242232223312</v>
       </c>
       <c r="E9">
-        <v>0.01093161886512409</v>
+        <v>-0.005599522925509553</v>
       </c>
       <c r="F9">
-        <v>0.07597639354246323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.00850035840934764</v>
+      </c>
+      <c r="G9">
+        <v>-0.03577334298686727</v>
+      </c>
+      <c r="H9">
+        <v>-0.05254154727594488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0355194825153801</v>
+        <v>0.1338110686099762</v>
       </c>
       <c r="C10">
-        <v>-0.005940041427619358</v>
+        <v>0.1391027100913353</v>
       </c>
       <c r="D10">
-        <v>-0.1424858104311406</v>
+        <v>0.03477572201446796</v>
       </c>
       <c r="E10">
-        <v>-0.05439000669884923</v>
+        <v>0.00441374421128729</v>
       </c>
       <c r="F10">
-        <v>0.0469889546120503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.05114834004197421</v>
+      </c>
+      <c r="G10">
+        <v>-0.01010376673630146</v>
+      </c>
+      <c r="H10">
+        <v>0.01061079185089885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02366113285713602</v>
+        <v>0.01428286570190007</v>
       </c>
       <c r="C11">
-        <v>-0.02486714816341888</v>
+        <v>-0.0495475339849102</v>
       </c>
       <c r="D11">
-        <v>0.03352420150146845</v>
+        <v>-0.002395911387904773</v>
       </c>
       <c r="E11">
-        <v>0.0221000251782929</v>
+        <v>0.000705688044716864</v>
       </c>
       <c r="F11">
-        <v>0.0251571357457592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.005673979540743327</v>
+      </c>
+      <c r="G11">
+        <v>-0.01442930986005003</v>
+      </c>
+      <c r="H11">
+        <v>-0.04876793403933089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03711718560706612</v>
+        <v>0.0181647431785458</v>
       </c>
       <c r="C12">
-        <v>-0.02828648751334232</v>
+        <v>-0.04757068523068004</v>
       </c>
       <c r="D12">
-        <v>0.02615557785412652</v>
+        <v>-0.005981288804629072</v>
       </c>
       <c r="E12">
-        <v>0.03207144872359492</v>
+        <v>-0.01244190004360052</v>
       </c>
       <c r="F12">
-        <v>-0.0002487337088967997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01112469799724942</v>
+      </c>
+      <c r="G12">
+        <v>-0.006904180437018852</v>
+      </c>
+      <c r="H12">
+        <v>-0.0185869392590593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0007024081584860041</v>
+        <v>0.01440766184972845</v>
       </c>
       <c r="C13">
-        <v>-0.01631731854562876</v>
+        <v>-0.02274883013794742</v>
       </c>
       <c r="D13">
-        <v>0.008114991016121635</v>
+        <v>-0.02178413528082202</v>
       </c>
       <c r="E13">
-        <v>0.005370197777955668</v>
+        <v>0.0152335167242202</v>
       </c>
       <c r="F13">
-        <v>0.07080040413884736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.007422215704271475</v>
+      </c>
+      <c r="G13">
+        <v>-0.04412288281018027</v>
+      </c>
+      <c r="H13">
+        <v>-0.06931511990729147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02121372185026186</v>
+        <v>0.007033292659690303</v>
       </c>
       <c r="C14">
-        <v>0.001556802470985878</v>
+        <v>-0.01932760826352591</v>
       </c>
       <c r="D14">
-        <v>0.0147838354744115</v>
+        <v>-0.007413137141863178</v>
       </c>
       <c r="E14">
-        <v>0.01324652796835444</v>
+        <v>-0.01532735248808087</v>
       </c>
       <c r="F14">
-        <v>0.04448019160000378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.008824927605711429</v>
+      </c>
+      <c r="G14">
+        <v>-0.02701019692811176</v>
+      </c>
+      <c r="H14">
+        <v>-0.01734776913965494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02563898570256617</v>
+        <v>0.01637798043838509</v>
       </c>
       <c r="C16">
-        <v>-0.02512723113083755</v>
+        <v>-0.04318573435838674</v>
       </c>
       <c r="D16">
-        <v>0.03643984428132333</v>
+        <v>-0.001356038246908612</v>
       </c>
       <c r="E16">
-        <v>0.0230459861120552</v>
+        <v>-0.003097703230219998</v>
       </c>
       <c r="F16">
-        <v>0.02967507664811379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.005842291287436704</v>
+      </c>
+      <c r="G16">
+        <v>-0.01653174327472416</v>
+      </c>
+      <c r="H16">
+        <v>-0.03711919331012936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02747403201478741</v>
+        <v>0.01587288278763551</v>
       </c>
       <c r="C19">
-        <v>-0.01959029658658169</v>
+        <v>-0.04219865521301505</v>
       </c>
       <c r="D19">
-        <v>0.03702149937816119</v>
+        <v>-0.01352172049670203</v>
       </c>
       <c r="E19">
-        <v>0.03675695993701419</v>
+        <v>-0.008609798686809925</v>
       </c>
       <c r="F19">
-        <v>0.07509364065017758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.007726808502304268</v>
+      </c>
+      <c r="G19">
+        <v>-0.0500924376502954</v>
+      </c>
+      <c r="H19">
+        <v>-0.05244827076541111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.000739108492360071</v>
+        <v>0.00273614860251067</v>
       </c>
       <c r="C20">
-        <v>0.01205125612855482</v>
+        <v>-0.01953152762858914</v>
       </c>
       <c r="D20">
-        <v>0.003611427110204904</v>
+        <v>-0.01156899027498624</v>
       </c>
       <c r="E20">
-        <v>0.01145067656490294</v>
+        <v>-0.003638789312283276</v>
       </c>
       <c r="F20">
-        <v>0.04808107768712087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01557811228952217</v>
+      </c>
+      <c r="G20">
+        <v>-0.03971701381929148</v>
+      </c>
+      <c r="H20">
+        <v>-0.02999534873578571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01954979138793363</v>
+        <v>0.008986375664325676</v>
       </c>
       <c r="C21">
-        <v>0.01504738398265819</v>
+        <v>-0.01764989899080545</v>
       </c>
       <c r="D21">
-        <v>0.02632833091051177</v>
+        <v>-0.01362205740154407</v>
       </c>
       <c r="E21">
-        <v>0.002386998648737337</v>
+        <v>-0.01763986189588233</v>
       </c>
       <c r="F21">
-        <v>0.02598518453514537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01945125864195758</v>
+      </c>
+      <c r="G21">
+        <v>-0.02512484101972649</v>
+      </c>
+      <c r="H21">
+        <v>-0.05060335583519773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02140128344444353</v>
+        <v>0.009786678880656598</v>
       </c>
       <c r="C24">
-        <v>-0.02124222459584386</v>
+        <v>-0.04114299532976703</v>
       </c>
       <c r="D24">
-        <v>0.01635077508852056</v>
+        <v>-0.006833913068469037</v>
       </c>
       <c r="E24">
-        <v>0.01942003871041382</v>
+        <v>-0.002320749737949326</v>
       </c>
       <c r="F24">
-        <v>0.0279152628613531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.008515493466105056</v>
+      </c>
+      <c r="G24">
+        <v>-0.007667589022505333</v>
+      </c>
+      <c r="H24">
+        <v>-0.0433135207831209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02583237971505505</v>
+        <v>0.02421122201091311</v>
       </c>
       <c r="C25">
-        <v>-0.02099208262891064</v>
+        <v>-0.04795345421579515</v>
       </c>
       <c r="D25">
-        <v>0.02724476014104054</v>
+        <v>-0.0102379558302847</v>
       </c>
       <c r="E25">
-        <v>0.01675845428451301</v>
+        <v>-0.007001355615851424</v>
       </c>
       <c r="F25">
-        <v>0.03308904823579937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01222566806004427</v>
+      </c>
+      <c r="G25">
+        <v>-0.01712714665093847</v>
+      </c>
+      <c r="H25">
+        <v>-0.0424839976258661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009967621145459153</v>
+        <v>0.006244647346103159</v>
       </c>
       <c r="C26">
-        <v>-0.006924432531559333</v>
+        <v>-0.004491605993052524</v>
       </c>
       <c r="D26">
-        <v>0.0153335874159531</v>
+        <v>-0.02252862316354501</v>
       </c>
       <c r="E26">
-        <v>-0.00804363410923207</v>
+        <v>-0.003264310062684414</v>
       </c>
       <c r="F26">
-        <v>0.05081726401300647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009323503637523831</v>
+      </c>
+      <c r="G26">
+        <v>-0.01235212400883033</v>
+      </c>
+      <c r="H26">
+        <v>-0.01976839150428987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02535671231036943</v>
+        <v>0.0089660796126862</v>
       </c>
       <c r="C27">
-        <v>-0.01548887645415949</v>
+        <v>-0.009239324455114235</v>
       </c>
       <c r="D27">
-        <v>-0.002605842308569737</v>
+        <v>0.001325859055868797</v>
       </c>
       <c r="E27">
-        <v>0.03002608336460582</v>
+        <v>-0.006685698313668975</v>
       </c>
       <c r="F27">
-        <v>0.01092725824539848</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0006780138656496644</v>
+      </c>
+      <c r="G27">
+        <v>-0.009570085088606517</v>
+      </c>
+      <c r="H27">
+        <v>0.008348342168414513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07443723916018363</v>
+        <v>0.1879497317456326</v>
       </c>
       <c r="C28">
-        <v>-0.02139516408512685</v>
+        <v>0.1812036776471601</v>
       </c>
       <c r="D28">
-        <v>-0.2061414564460629</v>
+        <v>0.03331549669397938</v>
       </c>
       <c r="E28">
-        <v>-0.09634740405661196</v>
+        <v>-0.01084513508270155</v>
       </c>
       <c r="F28">
-        <v>0.04547180609794138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0469365599210264</v>
+      </c>
+      <c r="G28">
+        <v>0.0002275584614635756</v>
+      </c>
+      <c r="H28">
+        <v>0.012281271667198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02233485249024858</v>
+        <v>0.01190903724328749</v>
       </c>
       <c r="C29">
-        <v>-9.031530512577043e-05</v>
+        <v>-0.01739986509804259</v>
       </c>
       <c r="D29">
-        <v>0.01581802875831448</v>
+        <v>-0.006169769397766533</v>
       </c>
       <c r="E29">
-        <v>0.01448662981796933</v>
+        <v>-0.01494076962270686</v>
       </c>
       <c r="F29">
-        <v>0.04185353347657957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0101183154626405</v>
+      </c>
+      <c r="G29">
+        <v>-0.02588047524335606</v>
+      </c>
+      <c r="H29">
+        <v>-0.01043819084579232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02279593224312204</v>
+        <v>0.02425395526307286</v>
       </c>
       <c r="C30">
-        <v>-0.06738219651781358</v>
+        <v>-0.08652526270261186</v>
       </c>
       <c r="D30">
-        <v>0.05394425975608298</v>
+        <v>-0.02832973098730025</v>
       </c>
       <c r="E30">
-        <v>0.0244538605497976</v>
+        <v>0.03304419385462794</v>
       </c>
       <c r="F30">
-        <v>0.08230513135396811</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.008663984772310937</v>
+      </c>
+      <c r="G30">
+        <v>-0.05180927781423825</v>
+      </c>
+      <c r="H30">
+        <v>-0.07445116478335354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04280902760477479</v>
+        <v>0.03984383571654273</v>
       </c>
       <c r="C31">
-        <v>-0.0385178743424452</v>
+        <v>-0.03096780944289063</v>
       </c>
       <c r="D31">
-        <v>0.01566458947937868</v>
+        <v>-0.0009138348991832543</v>
       </c>
       <c r="E31">
-        <v>0.02152196711054099</v>
+        <v>-0.001044402394168111</v>
       </c>
       <c r="F31">
-        <v>0.03530780674095822</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.008276886164797702</v>
+      </c>
+      <c r="G31">
+        <v>-0.01310470943999833</v>
+      </c>
+      <c r="H31">
+        <v>-0.004756240657339848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02228228825332</v>
+        <v>0.0005184292570135003</v>
       </c>
       <c r="C32">
-        <v>0.01376604764110821</v>
+        <v>-0.01333435486595216</v>
       </c>
       <c r="D32">
-        <v>0.05018266179149392</v>
+        <v>0.007538570695002703</v>
       </c>
       <c r="E32">
-        <v>0.0417929500715371</v>
+        <v>-0.0293618038664046</v>
       </c>
       <c r="F32">
-        <v>0.0430929673793439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.00735518916211958</v>
+      </c>
+      <c r="G32">
+        <v>-0.05039636770673112</v>
+      </c>
+      <c r="H32">
+        <v>-0.0505317306032729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0221827157594819</v>
+        <v>0.01776896144513157</v>
       </c>
       <c r="C33">
-        <v>-0.04440449400589686</v>
+        <v>-0.04725046092618787</v>
       </c>
       <c r="D33">
-        <v>0.04787379295284692</v>
+        <v>-0.0136634547288189</v>
       </c>
       <c r="E33">
-        <v>0.005283683499247517</v>
+        <v>0.02058200423476039</v>
       </c>
       <c r="F33">
-        <v>0.05877711187622096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02180028318870753</v>
+      </c>
+      <c r="G33">
+        <v>-0.02303260403251587</v>
+      </c>
+      <c r="H33">
+        <v>-0.04940706740160596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03043184550825251</v>
+        <v>0.02340477319194392</v>
       </c>
       <c r="C34">
-        <v>-0.01869143450974085</v>
+        <v>-0.05026008653685755</v>
       </c>
       <c r="D34">
-        <v>0.03533839845093417</v>
+        <v>0.005867433411025717</v>
       </c>
       <c r="E34">
-        <v>0.02882485529819232</v>
+        <v>-0.01472000398984996</v>
       </c>
       <c r="F34">
-        <v>0.02561862727383915</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01531407916820688</v>
+      </c>
+      <c r="G34">
+        <v>-0.01015167106001557</v>
+      </c>
+      <c r="H34">
+        <v>-0.03452409973058467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0177532071096599</v>
+        <v>0.01374801000516745</v>
       </c>
       <c r="C36">
-        <v>-0.001641952066802607</v>
+        <v>-0.00541428234973605</v>
       </c>
       <c r="D36">
-        <v>0.006575581366062251</v>
+        <v>-0.009158128720176113</v>
       </c>
       <c r="E36">
-        <v>0.008836022304329299</v>
+        <v>-0.008624919983846242</v>
       </c>
       <c r="F36">
-        <v>0.02920893808783835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.008297414601828179</v>
+      </c>
+      <c r="G36">
+        <v>-0.01094569506587557</v>
+      </c>
+      <c r="H36">
+        <v>-0.01517262247456662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009781408915571992</v>
+        <v>0.02605251935393767</v>
       </c>
       <c r="C38">
-        <v>-0.008232180199520369</v>
+        <v>-0.02044335851643885</v>
       </c>
       <c r="D38">
-        <v>0.0006858371918470218</v>
+        <v>0.009875508417051192</v>
       </c>
       <c r="E38">
-        <v>-0.02428897977530408</v>
+        <v>0.0001781699217602238</v>
       </c>
       <c r="F38">
-        <v>0.04448690818289147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.004282753271038943</v>
+      </c>
+      <c r="G38">
+        <v>-0.0172583193115939</v>
+      </c>
+      <c r="H38">
+        <v>-0.03831638965378913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02053222040966472</v>
+        <v>0.003430167743424189</v>
       </c>
       <c r="C39">
-        <v>-0.02170882484679968</v>
+        <v>-0.08636285310710622</v>
       </c>
       <c r="D39">
-        <v>0.05570012946392949</v>
+        <v>-0.01515100829733969</v>
       </c>
       <c r="E39">
-        <v>0.02347037766150709</v>
+        <v>0.005972028750118527</v>
       </c>
       <c r="F39">
-        <v>0.0460082749006823</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.006733687036764416</v>
+      </c>
+      <c r="G39">
+        <v>-0.02358830009223592</v>
+      </c>
+      <c r="H39">
+        <v>-0.07834194747282359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00351795484926309</v>
+        <v>0.01968480787510779</v>
       </c>
       <c r="C40">
-        <v>-0.04631550348501152</v>
+        <v>-0.02976118871030402</v>
       </c>
       <c r="D40">
-        <v>0.0157298409660907</v>
+        <v>-0.009764196403667913</v>
       </c>
       <c r="E40">
-        <v>0.02699344862407631</v>
+        <v>0.02398305058546555</v>
       </c>
       <c r="F40">
-        <v>0.03470340842404047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02214907874711438</v>
+      </c>
+      <c r="G40">
+        <v>-0.02012789065612071</v>
+      </c>
+      <c r="H40">
+        <v>-0.05061497310452464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008353977554277602</v>
+        <v>0.01202936119619988</v>
       </c>
       <c r="C41">
-        <v>-0.0004600693283955107</v>
+        <v>0.007855365879134532</v>
       </c>
       <c r="D41">
-        <v>0.005186626727033732</v>
+        <v>-0.001343442968140465</v>
       </c>
       <c r="E41">
-        <v>-0.01392456129943286</v>
+        <v>-0.005891430051298172</v>
       </c>
       <c r="F41">
-        <v>0.003746692624998053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005796408208669196</v>
+      </c>
+      <c r="G41">
+        <v>0.007689873893901704</v>
+      </c>
+      <c r="H41">
+        <v>0.002983065651266177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1908810827441415</v>
+        <v>0.08491568338250102</v>
       </c>
       <c r="C42">
-        <v>-0.2488694945069466</v>
+        <v>-0.2007133230488797</v>
       </c>
       <c r="D42">
-        <v>0.3173493838491978</v>
+        <v>-0.1363501061204745</v>
       </c>
       <c r="E42">
-        <v>-0.8149138627537771</v>
+        <v>0.1835196072714931</v>
       </c>
       <c r="F42">
-        <v>-0.3057581080277952</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.543804862384027</v>
+      </c>
+      <c r="G42">
+        <v>0.7642116636043593</v>
+      </c>
+      <c r="H42">
+        <v>-0.05479606420480457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007968974568109664</v>
+        <v>0.01329550163873426</v>
       </c>
       <c r="C43">
-        <v>-0.00702705060628621</v>
+        <v>0.006981465635808665</v>
       </c>
       <c r="D43">
-        <v>0.008962976855375246</v>
+        <v>-0.002091304537329168</v>
       </c>
       <c r="E43">
-        <v>-0.002660120930695543</v>
+        <v>-0.0012796466301932</v>
       </c>
       <c r="F43">
-        <v>0.02549287309706597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004943173960644163</v>
+      </c>
+      <c r="G43">
+        <v>0.005830537415505392</v>
+      </c>
+      <c r="H43">
+        <v>-0.007968604831770502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02221518092145123</v>
+        <v>0.007673725963792275</v>
       </c>
       <c r="C44">
-        <v>0.00380755190992069</v>
+        <v>-0.03967572245837738</v>
       </c>
       <c r="D44">
-        <v>0.0291920734832803</v>
+        <v>-0.006366588218468685</v>
       </c>
       <c r="E44">
-        <v>-0.005770924550879987</v>
+        <v>-0.01354759187633999</v>
       </c>
       <c r="F44">
-        <v>0.08642533918295793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02445497291237266</v>
+      </c>
+      <c r="G44">
+        <v>-0.02243947823894669</v>
+      </c>
+      <c r="H44">
+        <v>-0.0599551283968041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01517769534373762</v>
+        <v>0.003429406623000139</v>
       </c>
       <c r="C46">
-        <v>-0.009550823937664408</v>
+        <v>-0.01111006381500986</v>
       </c>
       <c r="D46">
-        <v>0.04728341654083145</v>
+        <v>-0.01104736902098647</v>
       </c>
       <c r="E46">
-        <v>0.01923215037024294</v>
+        <v>-0.003767961699942536</v>
       </c>
       <c r="F46">
-        <v>0.05979478386807067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01176854745913792</v>
+      </c>
+      <c r="G46">
+        <v>-0.02019984096838203</v>
+      </c>
+      <c r="H46">
+        <v>-0.015268446283017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06885334643602095</v>
+        <v>0.05512673142056361</v>
       </c>
       <c r="C47">
-        <v>-0.05834760546230448</v>
+        <v>-0.06700452160447463</v>
       </c>
       <c r="D47">
-        <v>0.007482951639103684</v>
+        <v>0.006001213713701287</v>
       </c>
       <c r="E47">
-        <v>0.03271224476496042</v>
+        <v>-0.008088796682814229</v>
       </c>
       <c r="F47">
-        <v>0.007857988501377864</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.002089441639912684</v>
+      </c>
+      <c r="G47">
+        <v>-0.006214723970743638</v>
+      </c>
+      <c r="H47">
+        <v>0.03423963329316476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01439794695031406</v>
+        <v>0.01308472959819889</v>
       </c>
       <c r="C48">
-        <v>-0.01068908923169923</v>
+        <v>-0.01487007440075147</v>
       </c>
       <c r="D48">
-        <v>0.0142048240274037</v>
+        <v>-0.0005813269788520191</v>
       </c>
       <c r="E48">
-        <v>0.008271577831627847</v>
+        <v>-0.001490662290779384</v>
       </c>
       <c r="F48">
-        <v>0.03419796417568835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.005462268002364956</v>
+      </c>
+      <c r="G48">
+        <v>-0.01312040773737849</v>
+      </c>
+      <c r="H48">
+        <v>-0.01980568018909157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07741560863585444</v>
+        <v>0.0598144925456809</v>
       </c>
       <c r="C50">
-        <v>-0.04392232175680802</v>
+        <v>-0.06226815990252722</v>
       </c>
       <c r="D50">
-        <v>0.0284544448912172</v>
+        <v>0.004905898820523101</v>
       </c>
       <c r="E50">
-        <v>0.02020611125942237</v>
+        <v>-0.0199855423235504</v>
       </c>
       <c r="F50">
-        <v>0.02139842469182504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.006311615861950291</v>
+      </c>
+      <c r="G50">
+        <v>-0.006561653418679884</v>
+      </c>
+      <c r="H50">
+        <v>0.01813344032964176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01242684420428893</v>
+        <v>0.0123572766236546</v>
       </c>
       <c r="C51">
-        <v>0.001778214772940751</v>
+        <v>-0.0150213451592087</v>
       </c>
       <c r="D51">
-        <v>-0.003936055461782107</v>
+        <v>-0.005966057223876042</v>
       </c>
       <c r="E51">
-        <v>0.001781661514543287</v>
+        <v>-0.007511110713608807</v>
       </c>
       <c r="F51">
-        <v>0.09690300770493371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01255390260238167</v>
+      </c>
+      <c r="G51">
+        <v>-0.02714299555210261</v>
+      </c>
+      <c r="H51">
+        <v>-0.04748232295512338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07961648653069257</v>
+        <v>0.07273040465514574</v>
       </c>
       <c r="C53">
-        <v>-0.06625743772950804</v>
+        <v>-0.1053962705205494</v>
       </c>
       <c r="D53">
-        <v>0.03904227907696241</v>
+        <v>0.004642239738688948</v>
       </c>
       <c r="E53">
-        <v>0.04881472631864515</v>
+        <v>-0.01378802380151753</v>
       </c>
       <c r="F53">
-        <v>-0.02601637335094577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02545545220645752</v>
+      </c>
+      <c r="G53">
+        <v>0.005442820904904616</v>
+      </c>
+      <c r="H53">
+        <v>0.03523461892396901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02554579720126269</v>
+        <v>0.02328584827196733</v>
       </c>
       <c r="C54">
-        <v>-0.004183352264652909</v>
+        <v>0.0003806925117613178</v>
       </c>
       <c r="D54">
-        <v>-0.002208144237709265</v>
+        <v>0.006905385539169337</v>
       </c>
       <c r="E54">
-        <v>0.02119059300835247</v>
+        <v>-0.006796513281850279</v>
       </c>
       <c r="F54">
-        <v>0.0319593008570047</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01864218831116805</v>
+      </c>
+      <c r="G54">
+        <v>-0.03028677397960956</v>
+      </c>
+      <c r="H54">
+        <v>-0.00633437812727259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07680241895384772</v>
+        <v>0.05329510365758714</v>
       </c>
       <c r="C55">
-        <v>-0.05849847352052945</v>
+        <v>-0.09391750525347721</v>
       </c>
       <c r="D55">
-        <v>0.0451657839155244</v>
+        <v>0.00281927786707257</v>
       </c>
       <c r="E55">
-        <v>0.03413741169824327</v>
+        <v>-0.01266157500316873</v>
       </c>
       <c r="F55">
-        <v>-0.03153812338256106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.006051463389724933</v>
+      </c>
+      <c r="G55">
+        <v>-0.001032408298601168</v>
+      </c>
+      <c r="H55">
+        <v>0.03920250145151588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1122566758169788</v>
+        <v>0.09848531285157096</v>
       </c>
       <c r="C56">
-        <v>-0.09907216525508589</v>
+        <v>-0.1348465452773014</v>
       </c>
       <c r="D56">
-        <v>0.01823019869727011</v>
+        <v>0.01199727714247329</v>
       </c>
       <c r="E56">
-        <v>0.07737544901231497</v>
+        <v>-0.01515564926728149</v>
       </c>
       <c r="F56">
-        <v>-0.04943903085918117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.04929463873510995</v>
+      </c>
+      <c r="G56">
+        <v>0.01361313019946188</v>
+      </c>
+      <c r="H56">
+        <v>0.07705839064829902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.02784604473427376</v>
+        <v>0.02293578746946142</v>
       </c>
       <c r="C57">
-        <v>-0.02919439041933649</v>
+        <v>-0.02889791980799622</v>
       </c>
       <c r="D57">
-        <v>0.01914834851277793</v>
+        <v>-0.023940236448696</v>
       </c>
       <c r="E57">
-        <v>-0.03404077628259504</v>
+        <v>0.009532507896607962</v>
       </c>
       <c r="F57">
-        <v>0.05296000932720595</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03754548621166352</v>
+      </c>
+      <c r="G57">
+        <v>-0.03962093245061112</v>
+      </c>
+      <c r="H57">
+        <v>-0.05841834613117698</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1097147054471094</v>
+        <v>0.08711439348956396</v>
       </c>
       <c r="C58">
-        <v>-0.2357869953750829</v>
+        <v>-0.1878048676600863</v>
       </c>
       <c r="D58">
-        <v>0.2006837380856318</v>
+        <v>-0.01325083249518856</v>
       </c>
       <c r="E58">
-        <v>-0.02656497943648286</v>
+        <v>0.3445793496197188</v>
       </c>
       <c r="F58">
-        <v>0.5832021237701327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.6286262069389895</v>
+      </c>
+      <c r="G58">
+        <v>-0.5810143875522915</v>
+      </c>
+      <c r="H58">
+        <v>0.1790805521739673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05201114435797071</v>
+        <v>0.2080380906223389</v>
       </c>
       <c r="C59">
-        <v>-0.04042808355986395</v>
+        <v>0.1671257229268591</v>
       </c>
       <c r="D59">
-        <v>-0.183764034509173</v>
+        <v>0.04079981465264086</v>
       </c>
       <c r="E59">
-        <v>-0.05935362469444359</v>
+        <v>0.01278939501311232</v>
       </c>
       <c r="F59">
-        <v>0.07813976284124829</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01303965963365207</v>
+      </c>
+      <c r="G59">
+        <v>-0.01303635142334618</v>
+      </c>
+      <c r="H59">
+        <v>-0.02047854534734036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1025603715106969</v>
+        <v>0.2205590513887642</v>
       </c>
       <c r="C60">
-        <v>-0.128162944388937</v>
+        <v>-0.07116290950677634</v>
       </c>
       <c r="D60">
-        <v>-0.01334174361215912</v>
+        <v>0.007215546880997769</v>
       </c>
       <c r="E60">
-        <v>-0.03319971162528271</v>
+        <v>0.05876184450198966</v>
       </c>
       <c r="F60">
-        <v>0.1771144973211256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.106977816591091</v>
+      </c>
+      <c r="G60">
+        <v>-0.03560262653737491</v>
+      </c>
+      <c r="H60">
+        <v>-0.3889685127021754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01889204538554793</v>
+        <v>0.01308486121094415</v>
       </c>
       <c r="C61">
-        <v>-0.01289258965546303</v>
+        <v>-0.06114182253607476</v>
       </c>
       <c r="D61">
-        <v>0.04084945237220727</v>
+        <v>-0.005980829045259891</v>
       </c>
       <c r="E61">
-        <v>0.006266203434094338</v>
+        <v>-0.004446116904563208</v>
       </c>
       <c r="F61">
-        <v>0.02227352033723436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.008267031812624301</v>
+      </c>
+      <c r="G61">
+        <v>-0.01966509203758465</v>
+      </c>
+      <c r="H61">
+        <v>-0.05964772199753466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0132515714362619</v>
+        <v>0.006986197910368091</v>
       </c>
       <c r="C63">
-        <v>-0.003761291708245345</v>
+        <v>-0.02183801376366882</v>
       </c>
       <c r="D63">
-        <v>0.02031816657436651</v>
+        <v>-0.007936035932895458</v>
       </c>
       <c r="E63">
-        <v>0.002355002238022332</v>
+        <v>-0.01016819841640496</v>
       </c>
       <c r="F63">
-        <v>0.00538968699391762</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.002024764153963552</v>
+      </c>
+      <c r="G63">
+        <v>-0.01168713171909649</v>
+      </c>
+      <c r="H63">
+        <v>-0.01399226237799816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03540118586034968</v>
+        <v>0.03460506520526448</v>
       </c>
       <c r="C64">
-        <v>-0.008787050294243469</v>
+        <v>-0.0428931114291323</v>
       </c>
       <c r="D64">
-        <v>0.0239910831584302</v>
+        <v>-0.003548143250818012</v>
       </c>
       <c r="E64">
-        <v>0.02255181237102377</v>
+        <v>-0.01795632501143453</v>
       </c>
       <c r="F64">
-        <v>0.01133278087920358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01053871679265325</v>
+      </c>
+      <c r="G64">
+        <v>0.01158991884655694</v>
+      </c>
+      <c r="H64">
+        <v>-0.0404923557237697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03487132474191143</v>
+        <v>0.04002834019813225</v>
       </c>
       <c r="C65">
-        <v>-0.02200012981737831</v>
+        <v>-0.08207721952672431</v>
       </c>
       <c r="D65">
-        <v>0.0386813148890658</v>
+        <v>-0.01713865347378206</v>
       </c>
       <c r="E65">
-        <v>0.02928037385193285</v>
+        <v>-0.00838103582211224</v>
       </c>
       <c r="F65">
-        <v>0.01668450604586506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04029192407206653</v>
+      </c>
+      <c r="G65">
+        <v>-0.0217887107902315</v>
+      </c>
+      <c r="H65">
+        <v>-0.06834225073169306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02427194979845607</v>
+        <v>0.01288728461426195</v>
       </c>
       <c r="C66">
-        <v>-0.0336658205849084</v>
+        <v>-0.1155033262566114</v>
       </c>
       <c r="D66">
-        <v>0.05861612808421632</v>
+        <v>-0.01395883313173538</v>
       </c>
       <c r="E66">
-        <v>0.04991348272214092</v>
+        <v>0.007944537237548271</v>
       </c>
       <c r="F66">
-        <v>0.03586173611239859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02993177238292456</v>
+      </c>
+      <c r="G66">
+        <v>-0.03636597444941823</v>
+      </c>
+      <c r="H66">
+        <v>-0.08780330812357756</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0181394732226656</v>
+        <v>0.04901725172217236</v>
       </c>
       <c r="C67">
-        <v>-0.0202761685378653</v>
+        <v>-0.02897868654579636</v>
       </c>
       <c r="D67">
-        <v>-0.009123982103465073</v>
+        <v>0.009803165419973484</v>
       </c>
       <c r="E67">
-        <v>-0.01414465271388613</v>
+        <v>0.001297781887671344</v>
       </c>
       <c r="F67">
-        <v>0.02763615741726428</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01117282411626428</v>
+      </c>
+      <c r="G67">
+        <v>-0.01624626095780143</v>
+      </c>
+      <c r="H67">
+        <v>-0.03576240674346904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06688468474184772</v>
+        <v>0.2052362885999902</v>
       </c>
       <c r="C68">
-        <v>-0.0388199516255443</v>
+        <v>0.2066880293338373</v>
       </c>
       <c r="D68">
-        <v>-0.2054930334811169</v>
+        <v>0.02395563271657315</v>
       </c>
       <c r="E68">
-        <v>-0.06626745180044119</v>
+        <v>0.01050598563413458</v>
       </c>
       <c r="F68">
-        <v>0.07233579408435728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.06074232280340518</v>
+      </c>
+      <c r="G68">
+        <v>-0.00262716374705514</v>
+      </c>
+      <c r="H68">
+        <v>0.03789089993706758</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05090564689736817</v>
+        <v>0.05549501333377124</v>
       </c>
       <c r="C69">
-        <v>-0.04567291958311383</v>
+        <v>-0.0600415627110779</v>
       </c>
       <c r="D69">
-        <v>0.01114379428644223</v>
+        <v>0.01069575218597075</v>
       </c>
       <c r="E69">
-        <v>0.03412239366842519</v>
+        <v>-0.007435489614259291</v>
       </c>
       <c r="F69">
-        <v>0.01366517717785446</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02273089208909879</v>
+      </c>
+      <c r="G69">
+        <v>-0.005951611054630466</v>
+      </c>
+      <c r="H69">
+        <v>-0.003081887555603529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06996210028830899</v>
+        <v>0.1812525234474006</v>
       </c>
       <c r="C71">
-        <v>-0.04648979098461797</v>
+        <v>0.16141256405949</v>
       </c>
       <c r="D71">
-        <v>-0.2086912101885963</v>
+        <v>0.02572457547517373</v>
       </c>
       <c r="E71">
-        <v>-0.1096502269895162</v>
+        <v>0.01296320872128571</v>
       </c>
       <c r="F71">
-        <v>0.07546813329142296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06853513681513683</v>
+      </c>
+      <c r="G71">
+        <v>0.002066336489861231</v>
+      </c>
+      <c r="H71">
+        <v>0.01443744679390687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.08599703134236049</v>
+        <v>0.05716519885867082</v>
       </c>
       <c r="C72">
-        <v>-0.0976137682517037</v>
+        <v>-0.1134545419759925</v>
       </c>
       <c r="D72">
-        <v>0.06698017923263522</v>
+        <v>0.008034981106212143</v>
       </c>
       <c r="E72">
-        <v>0.07936927300380575</v>
+        <v>0.01645404374401455</v>
       </c>
       <c r="F72">
-        <v>0.09537357120988743</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04605726320994545</v>
+      </c>
+      <c r="G72">
+        <v>-0.05171053378258537</v>
+      </c>
+      <c r="H72">
+        <v>-0.09252459844793721</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1223439699815744</v>
+        <v>0.2842573039490242</v>
       </c>
       <c r="C73">
-        <v>-0.1986266034801653</v>
+        <v>-0.1492094824381665</v>
       </c>
       <c r="D73">
-        <v>-0.01441376728181462</v>
+        <v>-3.347144577823504e-05</v>
       </c>
       <c r="E73">
-        <v>-0.08228771067683249</v>
+        <v>0.09639438461571322</v>
       </c>
       <c r="F73">
-        <v>0.2082811993481768</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1338558507313166</v>
+      </c>
+      <c r="G73">
+        <v>-0.02816675751986666</v>
+      </c>
+      <c r="H73">
+        <v>-0.4924098218266417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1041198253991434</v>
+        <v>0.09683542466979669</v>
       </c>
       <c r="C74">
-        <v>-0.09118303138537054</v>
+        <v>-0.1373824346081597</v>
       </c>
       <c r="D74">
-        <v>0.02546241619017985</v>
+        <v>0.01161538686937972</v>
       </c>
       <c r="E74">
-        <v>0.0559610538635914</v>
+        <v>-0.01533555072304929</v>
       </c>
       <c r="F74">
-        <v>-0.06921495181973684</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03291484278705343</v>
+      </c>
+      <c r="G74">
+        <v>0.004186527578541126</v>
+      </c>
+      <c r="H74">
+        <v>0.05354532864186155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1815539713207542</v>
+        <v>0.2048425046109837</v>
       </c>
       <c r="C75">
-        <v>-0.1801208457665512</v>
+        <v>-0.2341918961339338</v>
       </c>
       <c r="D75">
-        <v>0.009471224848010574</v>
+        <v>0.03008624956134402</v>
       </c>
       <c r="E75">
-        <v>0.1707812162393337</v>
+        <v>-0.01559141511874258</v>
       </c>
       <c r="F75">
-        <v>-0.0992432907422952</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.09972578071921318</v>
+      </c>
+      <c r="G75">
+        <v>0.009877884629687247</v>
+      </c>
+      <c r="H75">
+        <v>0.1700383258522495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2364917545097484</v>
+        <v>0.1520963466712306</v>
       </c>
       <c r="C76">
-        <v>-0.1790140377123878</v>
+        <v>-0.2046065151584517</v>
       </c>
       <c r="D76">
-        <v>0.02484683752738676</v>
+        <v>0.02497719943582379</v>
       </c>
       <c r="E76">
-        <v>0.1814737138669575</v>
+        <v>-0.05768491184242532</v>
       </c>
       <c r="F76">
-        <v>-0.1904415389602755</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.08379782127055378</v>
+      </c>
+      <c r="G76">
+        <v>0.02319420890576944</v>
+      </c>
+      <c r="H76">
+        <v>0.1476884519299113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07467281781679341</v>
+        <v>0.0434625948128758</v>
       </c>
       <c r="C77">
-        <v>-0.08150706851092512</v>
+        <v>-0.08422168852025143</v>
       </c>
       <c r="D77">
-        <v>0.0702710235324035</v>
+        <v>-0.01501867471550792</v>
       </c>
       <c r="E77">
-        <v>-0.03783684859279585</v>
+        <v>0.01822467582748214</v>
       </c>
       <c r="F77">
-        <v>0.1107840846621282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.05053827233272503</v>
+      </c>
+      <c r="G77">
+        <v>-0.03223630281572875</v>
+      </c>
+      <c r="H77">
+        <v>-0.01829565732125041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04735792479739272</v>
+        <v>0.0210697246620773</v>
       </c>
       <c r="C78">
-        <v>-0.03446310357357239</v>
+        <v>-0.07567958769936101</v>
       </c>
       <c r="D78">
-        <v>0.1013934126971589</v>
+        <v>-0.008417939716659188</v>
       </c>
       <c r="E78">
-        <v>0.03045178633591277</v>
+        <v>-0.004070837797118971</v>
       </c>
       <c r="F78">
-        <v>0.07798549147792549</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.006009651834768304</v>
+      </c>
+      <c r="G78">
+        <v>-0.04129954557503022</v>
+      </c>
+      <c r="H78">
+        <v>-0.09001086367369592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.7058792152456999</v>
+        <v>0.09782073437372912</v>
       </c>
       <c r="C80">
-        <v>0.6833079885530725</v>
+        <v>-0.09289872066935979</v>
       </c>
       <c r="D80">
-        <v>0.07728146392799352</v>
+        <v>-0.005454373493276571</v>
       </c>
       <c r="E80">
-        <v>-0.04296635455723554</v>
+        <v>-0.8970449830195203</v>
       </c>
       <c r="F80">
-        <v>0.05345109719393547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.3561804564915687</v>
+      </c>
+      <c r="G80">
+        <v>-0.07742987910603835</v>
+      </c>
+      <c r="H80">
+        <v>-0.07929747797783102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.149164132701303</v>
+        <v>0.1305003751444446</v>
       </c>
       <c r="C81">
-        <v>-0.1289483056618806</v>
+        <v>-0.1452510864262494</v>
       </c>
       <c r="D81">
-        <v>0.004163248722058448</v>
+        <v>0.01821852112591446</v>
       </c>
       <c r="E81">
-        <v>0.1277560243838724</v>
+        <v>-0.02218202199171396</v>
       </c>
       <c r="F81">
-        <v>-0.07933665530082462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.05240713717383309</v>
+      </c>
+      <c r="G81">
+        <v>0.007701338236885964</v>
+      </c>
+      <c r="H81">
+        <v>0.1010783195968542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02011929875795395</v>
+        <v>0.02000561794325607</v>
       </c>
       <c r="C83">
-        <v>-0.02360217479171072</v>
+        <v>-0.02254775132613358</v>
       </c>
       <c r="D83">
-        <v>0.02243191853202572</v>
+        <v>-0.004649460658672502</v>
       </c>
       <c r="E83">
-        <v>-0.01960510516731951</v>
+        <v>0.005404273065455637</v>
       </c>
       <c r="F83">
-        <v>0.05020991609160704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02059970894688756</v>
+      </c>
+      <c r="G83">
+        <v>-0.02254837301170524</v>
+      </c>
+      <c r="H83">
+        <v>-0.04751843275339314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1997031295823222</v>
+        <v>0.1836978641854317</v>
       </c>
       <c r="C85">
-        <v>-0.1847684326654156</v>
+        <v>-0.2229386604128065</v>
       </c>
       <c r="D85">
-        <v>0.02243974131665363</v>
+        <v>0.01533464141122871</v>
       </c>
       <c r="E85">
-        <v>0.1684407761807017</v>
+        <v>-0.01881839707551772</v>
       </c>
       <c r="F85">
-        <v>-0.1367409969623978</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1196018014723383</v>
+      </c>
+      <c r="G85">
+        <v>0.04835439372376181</v>
+      </c>
+      <c r="H85">
+        <v>0.1103984042905602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003647538710752152</v>
+        <v>0.009310947073001518</v>
       </c>
       <c r="C86">
-        <v>0.003983913599562921</v>
+        <v>-0.03301519579270559</v>
       </c>
       <c r="D86">
-        <v>0.06888521400140581</v>
+        <v>-0.009197898189252485</v>
       </c>
       <c r="E86">
-        <v>-0.004621779876421016</v>
+        <v>-0.005996993824183952</v>
       </c>
       <c r="F86">
-        <v>0.04278713113559737</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02996345439658446</v>
+      </c>
+      <c r="G86">
+        <v>-0.01093528097156706</v>
+      </c>
+      <c r="H86">
+        <v>-0.07306048742171359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02388756946996722</v>
+        <v>0.004720621843173096</v>
       </c>
       <c r="C87">
-        <v>-0.01816191215601612</v>
+        <v>-0.03854107607582239</v>
       </c>
       <c r="D87">
-        <v>0.04089106788300193</v>
+        <v>-0.01122293975439627</v>
       </c>
       <c r="E87">
-        <v>-0.001551806768019814</v>
+        <v>0.004576293517774714</v>
       </c>
       <c r="F87">
-        <v>0.09779300963619741</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03566403964367519</v>
+      </c>
+      <c r="G87">
+        <v>-0.05181555186004522</v>
+      </c>
+      <c r="H87">
+        <v>-0.0827840730220165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01733468338381137</v>
+        <v>0.0422032284261291</v>
       </c>
       <c r="C88">
-        <v>0.002124960846537477</v>
+        <v>-0.01615887202130592</v>
       </c>
       <c r="D88">
-        <v>-0.0004649297588561698</v>
+        <v>-0.01776292095000653</v>
       </c>
       <c r="E88">
-        <v>0.01924811825497137</v>
+        <v>-0.02372581569728871</v>
       </c>
       <c r="F88">
-        <v>-0.02207105717267253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02017946831321965</v>
+      </c>
+      <c r="G88">
+        <v>-6.515956991415633e-05</v>
+      </c>
+      <c r="H88">
+        <v>-0.005345541835757974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0931786671864457</v>
+        <v>0.3201493355089592</v>
       </c>
       <c r="C89">
-        <v>-0.06753770941423815</v>
+        <v>0.2896130932431341</v>
       </c>
       <c r="D89">
-        <v>-0.3443277928355874</v>
+        <v>0.04599446451654215</v>
       </c>
       <c r="E89">
-        <v>-0.08555018216327007</v>
+        <v>0.01025786533131178</v>
       </c>
       <c r="F89">
-        <v>0.08408152625042314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.007303925374649314</v>
+      </c>
+      <c r="G89">
+        <v>0.0250135804045183</v>
+      </c>
+      <c r="H89">
+        <v>0.0147996658437092</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08346467231446364</v>
+        <v>0.265233691491861</v>
       </c>
       <c r="C90">
-        <v>-0.03098013015499848</v>
+        <v>0.2655168835211063</v>
       </c>
       <c r="D90">
-        <v>-0.3474889191513207</v>
+        <v>0.04270810897612274</v>
       </c>
       <c r="E90">
-        <v>-0.1028853819702403</v>
+        <v>0.002921353721785238</v>
       </c>
       <c r="F90">
-        <v>0.03634464496203509</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05497567035422064</v>
+      </c>
+      <c r="G90">
+        <v>0.01852805535961372</v>
+      </c>
+      <c r="H90">
+        <v>0.060930289415593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2267051129193575</v>
+        <v>0.1948583323335902</v>
       </c>
       <c r="C91">
-        <v>-0.2303399930677942</v>
+        <v>-0.2104272329654807</v>
       </c>
       <c r="D91">
-        <v>0.03174758350708081</v>
+        <v>0.02855204374912256</v>
       </c>
       <c r="E91">
-        <v>0.1441763230914999</v>
+        <v>-0.008416429838626019</v>
       </c>
       <c r="F91">
-        <v>-0.2105993590078366</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.09336761606517759</v>
+      </c>
+      <c r="G91">
+        <v>0.04145959406120497</v>
+      </c>
+      <c r="H91">
+        <v>0.18647123015937</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1395267925389806</v>
+        <v>0.2782031603280964</v>
       </c>
       <c r="C92">
-        <v>-0.09635772832321146</v>
+        <v>0.1751931005652047</v>
       </c>
       <c r="D92">
-        <v>-0.4367610589376367</v>
+        <v>0.07934483421202063</v>
       </c>
       <c r="E92">
-        <v>-0.01381633951294073</v>
+        <v>-0.003437407059903308</v>
       </c>
       <c r="F92">
-        <v>-0.1024824102453858</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.04540192669368993</v>
+      </c>
+      <c r="G92">
+        <v>-0.0154506762112157</v>
+      </c>
+      <c r="H92">
+        <v>0.1445099765828634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08025177058409637</v>
+        <v>0.3001489821872994</v>
       </c>
       <c r="C93">
-        <v>-0.0784321418271528</v>
+        <v>0.260378007140918</v>
       </c>
       <c r="D93">
-        <v>-0.4052721005844996</v>
+        <v>0.0520662396423414</v>
       </c>
       <c r="E93">
-        <v>-0.1528849334454799</v>
+        <v>0.03394715611536941</v>
       </c>
       <c r="F93">
-        <v>0.04225156410668037</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03818632338478441</v>
+      </c>
+      <c r="G93">
+        <v>0.03451441510609689</v>
+      </c>
+      <c r="H93">
+        <v>-0.004733613161443101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2211000053819668</v>
+        <v>0.2432044367229582</v>
       </c>
       <c r="C94">
-        <v>-0.2362861198801308</v>
+        <v>-0.237267081217605</v>
       </c>
       <c r="D94">
-        <v>0.01748599124159355</v>
+        <v>0.0186459713923623</v>
       </c>
       <c r="E94">
-        <v>0.2412847180544818</v>
+        <v>-0.007017281429981229</v>
       </c>
       <c r="F94">
-        <v>-0.1448663191616206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2145758353321527</v>
+      </c>
+      <c r="G94">
+        <v>0.04023318718818826</v>
+      </c>
+      <c r="H94">
+        <v>0.4098697405463457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.001181398984650649</v>
+        <v>0.03237208434928699</v>
       </c>
       <c r="C95">
-        <v>-0.08860102914305351</v>
+        <v>-0.1039560875813794</v>
       </c>
       <c r="D95">
-        <v>0.03215641749805761</v>
+        <v>0.003908261791628817</v>
       </c>
       <c r="E95">
-        <v>0.02660917738132628</v>
+        <v>0.08399326335562311</v>
       </c>
       <c r="F95">
-        <v>0.01938849389958511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02540517296845363</v>
+      </c>
+      <c r="G95">
+        <v>-0.02260622709882181</v>
+      </c>
+      <c r="H95">
+        <v>-0.03975895677644881</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1062657031806408</v>
+        <v>0.1863844627305801</v>
       </c>
       <c r="C98">
-        <v>-0.1332125757266961</v>
+        <v>-0.06849497213710103</v>
       </c>
       <c r="D98">
-        <v>-0.02593826971147325</v>
+        <v>0.02967697118504785</v>
       </c>
       <c r="E98">
-        <v>-0.09156396172985325</v>
+        <v>0.06858765478915935</v>
       </c>
       <c r="F98">
-        <v>0.1735753065121984</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01124166987733772</v>
+      </c>
+      <c r="G98">
+        <v>-0.02985588816695693</v>
+      </c>
+      <c r="H98">
+        <v>-0.3340030643244304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007621610946949319</v>
+        <v>0.005831040084846404</v>
       </c>
       <c r="C101">
-        <v>0.003640992752375857</v>
+        <v>-0.01733873820425016</v>
       </c>
       <c r="D101">
-        <v>0.05063073266715496</v>
+        <v>-0.007073015119177321</v>
       </c>
       <c r="E101">
-        <v>0.01832493204326514</v>
+        <v>0.002170148903653952</v>
       </c>
       <c r="F101">
-        <v>0.1742553733066168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0435457998787474</v>
+      </c>
+      <c r="G101">
+        <v>-0.07030299602355819</v>
+      </c>
+      <c r="H101">
+        <v>-0.005721552224058714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09678204204370944</v>
+        <v>0.09560833945493824</v>
       </c>
       <c r="C102">
-        <v>-0.08456222391906229</v>
+        <v>-0.1095676795534489</v>
       </c>
       <c r="D102">
-        <v>0.009305001797936124</v>
+        <v>0.001190936469741288</v>
       </c>
       <c r="E102">
-        <v>0.08709527144786536</v>
+        <v>-0.01138566068719474</v>
       </c>
       <c r="F102">
-        <v>-0.08471937595033256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05981845051965316</v>
+      </c>
+      <c r="G102">
+        <v>0.01426673383349563</v>
+      </c>
+      <c r="H102">
+        <v>0.06689051134841534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04345393553232296</v>
+        <v>0.01166939146899686</v>
       </c>
       <c r="C103">
-        <v>-0.02253116840189458</v>
+        <v>-0.01833766674077868</v>
       </c>
       <c r="D103">
-        <v>0.01736285554704275</v>
+        <v>0.0001317156816628346</v>
       </c>
       <c r="E103">
-        <v>0.04059075670885306</v>
+        <v>-0.01291053395899802</v>
       </c>
       <c r="F103">
-        <v>-0.002155906071323552</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.003410229523181229</v>
+      </c>
+      <c r="G103">
+        <v>-0.007125407632889491</v>
+      </c>
+      <c r="H103">
+        <v>0.01584712503409024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1115128875238323</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.09364124702366078</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9749751718957654</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02356335484720577</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.09171431498170843</v>
+      </c>
+      <c r="G104">
+        <v>-0.08113231221538482</v>
+      </c>
+      <c r="H104">
+        <v>0.05883501496767822</v>
       </c>
     </row>
   </sheetData>
